--- a/docs/品牌数据库.xlsx
+++ b/docs/品牌数据库.xlsx
@@ -11,6 +11,7 @@
     <sheet name="饮料" sheetId="2" r:id="rId2"/>
     <sheet name="日用品" sheetId="3" r:id="rId3"/>
     <sheet name="电子产品" sheetId="4" r:id="rId4"/>
+    <sheet name="冷饮" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -22,7 +23,7 @@
     <author>钱亚杰</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="C3" authorId="0">
       <text/>
     </comment>
   </commentList>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="234">
   <si>
     <t>食堂</t>
   </si>
@@ -53,6 +54,18 @@
     <t>标签</t>
   </si>
   <si>
+    <t>鲜约水饺</t>
+  </si>
+  <si>
+    <t>香菇鲜肉大馄饨</t>
+  </si>
+  <si>
+    <t>一般般</t>
+  </si>
+  <si>
+    <t>#馄饨</t>
+  </si>
+  <si>
     <t>南三</t>
   </si>
   <si>
@@ -107,6 +120,12 @@
     <t>5.9*</t>
   </si>
   <si>
+    <t>垃圾</t>
+  </si>
+  <si>
+    <t>#柠檬茶</t>
+  </si>
+  <si>
     <t>芋泥青团杯</t>
   </si>
   <si>
@@ -119,15 +138,18 @@
     <t>蓼南香</t>
   </si>
   <si>
+    <t>巴西烤肉饭</t>
+  </si>
+  <si>
+    <t>预制菜，味道还行</t>
+  </si>
+  <si>
+    <t>#炒饭</t>
+  </si>
+  <si>
     <t>黑椒牛排+小炒肉双拼炒饭</t>
   </si>
   <si>
-    <t>预制菜，味道还行</t>
-  </si>
-  <si>
-    <t>#炒饭</t>
-  </si>
-  <si>
     <t>鸡鸣汤包</t>
   </si>
   <si>
@@ -146,9 +168,6 @@
     <t>还行</t>
   </si>
   <si>
-    <t>#馄饨</t>
-  </si>
-  <si>
     <t>绝世皇鸭</t>
   </si>
   <si>
@@ -290,6 +309,24 @@
     <t>二楼羊杂面</t>
   </si>
   <si>
+    <t>鸡排</t>
+  </si>
+  <si>
+    <t>就是普通的鸡排，面粉多</t>
+  </si>
+  <si>
+    <t>#鸡排</t>
+  </si>
+  <si>
+    <t>肉燥拌面</t>
+  </si>
+  <si>
+    <t>吃起来很有食欲</t>
+  </si>
+  <si>
+    <t>#拌面</t>
+  </si>
+  <si>
     <t>辣肉汤面</t>
   </si>
   <si>
@@ -392,6 +429,15 @@
     <t>广东烧腊饭</t>
   </si>
   <si>
+    <t>叉烧</t>
+  </si>
+  <si>
+    <t>叉烧味道真不错，可惜量有点少</t>
+  </si>
+  <si>
+    <t>#叉烧</t>
+  </si>
+  <si>
     <t>广式烧鸭</t>
   </si>
   <si>
@@ -410,13 +456,19 @@
     <t>金汤肥牛面</t>
   </si>
   <si>
-    <t>一般般</t>
-  </si>
-  <si>
     <t>番茄肥牛汤面</t>
   </si>
   <si>
     <t>味道和量都不错</t>
+  </si>
+  <si>
+    <t>卫孔记面条</t>
+  </si>
+  <si>
+    <t>西红柿鸡蛋汤面</t>
+  </si>
+  <si>
+    <t>实惠，味道在水准之上</t>
   </si>
   <si>
     <t>椒麻鸡</t>
@@ -694,10 +746,23 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1160,10 +1225,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1172,37 +1237,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1211,98 +1270,104 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1317,6 +1382,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1385,13 +1456,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1403,7 +1474,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4946650" y="177800"/>
+          <a:off x="4946650" y="355600"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1427,13 +1498,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -1445,7 +1516,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4946650" y="177800"/>
+          <a:off x="4946650" y="355600"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1726,10 +1797,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1768,71 +1839,72 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2">
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2">
         <v>15</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="2">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="3:7">
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
         <v>15</v>
-      </c>
-      <c r="D4" s="2">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3">
-        <v>18</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -1851,100 +1923,107 @@
       <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="3">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3">
         <v>9</v>
-      </c>
-      <c r="E7" s="2">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="2">
-        <v>16</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="2">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="D9" s="3">
+        <v>14</v>
       </c>
       <c r="E9" s="2">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>41</v>
@@ -1959,125 +2038,127 @@
         <v>43</v>
       </c>
       <c r="D12" s="2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="2">
+        <v>16</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="2">
-        <v>10</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:7">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="G14" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2">
         <v>12</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="2">
-        <v>13</v>
-      </c>
-      <c r="E16" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="2">
-        <v>13</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F17" s="3" t="s">
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D18" s="2">
         <v>13</v>
       </c>
       <c r="E18" s="2">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="3" t="s">
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>64</v>
       </c>
@@ -2095,97 +2176,97 @@
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D20" s="2">
         <v>13</v>
       </c>
       <c r="E20" s="2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="3" t="s">
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="3" t="s">
+      <c r="D21" s="2">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D21" s="2">
-        <v>12</v>
-      </c>
-      <c r="E21" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D22" s="2">
-        <v>11</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="2">
+        <v>12</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="2">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="s">
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="2">
+        <v>11</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="2">
-        <v>8</v>
-      </c>
-      <c r="E24" s="2">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
         <v>84</v>
       </c>
@@ -2198,142 +2279,136 @@
         <v>86</v>
       </c>
       <c r="D25" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E25" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D26" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E26" s="2">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="3"/>
+      <c r="B27" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="C27" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D27" s="2">
         <v>4</v>
       </c>
       <c r="E27" s="2">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="3"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="3">
-        <v>13</v>
+        <v>95</v>
+      </c>
+      <c r="D28" s="2">
+        <v>12</v>
       </c>
       <c r="E28" s="2">
         <v>4.5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="3"/>
+      <c r="B29" s="5"/>
       <c r="C29" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="3">
-        <v>18</v>
+        <v>98</v>
+      </c>
+      <c r="D29" s="2">
+        <v>13</v>
       </c>
       <c r="E29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="B30" s="5"/>
       <c r="C30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="3">
-        <v>15</v>
+        <v>99</v>
+      </c>
+      <c r="D30" s="2">
+        <v>12</v>
       </c>
       <c r="E30" s="2">
         <v>3</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="2">
+        <v>4</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="3">
         <v>13</v>
       </c>
-      <c r="E31" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="2">
-        <v>16</v>
-      </c>
       <c r="E32" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>104</v>
@@ -2342,99 +2417,96 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="2:7">
+      <c r="B33" s="5"/>
+      <c r="C33" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="D33" s="3">
+        <v>18</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="2">
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="3">
         <v>15</v>
       </c>
-      <c r="E33" s="2">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
+      <c r="E34" s="2">
+        <v>3</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="2">
-        <v>11</v>
-      </c>
-      <c r="E34" s="2">
+      <c r="D35" s="3">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2">
         <v>3.5</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
+    <row r="36" spans="2:7">
+      <c r="B36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="2">
-        <v>13</v>
-      </c>
-      <c r="E35" s="2">
-        <v>3</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
+      <c r="D36" s="2">
+        <v>16</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="2">
-        <v>14</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3" t="s">
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="5" t="s">
         <v>120</v>
       </c>
       <c r="D37" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37" s="2">
         <v>4</v>
@@ -2442,107 +2514,229 @@
       <c r="F37" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="D38" s="2">
+        <v>11</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="2">
-        <v>15</v>
-      </c>
-      <c r="E38" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F38" s="3" t="s">
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7">
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>127</v>
       </c>
       <c r="D39" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E39" s="2">
-        <v>4</v>
-      </c>
-      <c r="F39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D40" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E40" s="2">
         <v>2</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="3" t="s">
         <v>130</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3"/>
+      <c r="B41" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="3" t="s">
+      <c r="C41" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="D41" s="2">
+        <v>14</v>
+      </c>
+      <c r="E41" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="G41" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="2">
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="2">
+        <v>14</v>
+      </c>
+      <c r="E42" s="2">
+        <v>4</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="2">
+        <v>15</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44" s="2">
+        <v>15</v>
+      </c>
+      <c r="E44" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="2">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="2">
+        <v>16</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="2">
         <v>20</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E47" s="2">
         <v>4.5</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>74</v>
+      <c r="F47" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A2:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B7"/>
+  <mergeCells count="14">
+    <mergeCell ref="A3:A36"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2572,13 +2766,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
@@ -2586,166 +2780,166 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" ht="28" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2773,16 +2967,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
@@ -2790,63 +2984,63 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D9" s="2">
         <v>4.5</v>
@@ -2854,13 +3048,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D11" s="2">
         <v>4.5</v>
@@ -2868,10 +3062,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="C13" s="2">
         <v>55.96</v>
@@ -2882,27 +3076,27 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="D15" s="2">
         <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C17" s="2">
         <v>25</v>
@@ -2911,15 +3105,15 @@
         <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2">
         <v>13.8</v>
@@ -2928,12 +3122,12 @@
         <v>3.5</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="3" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="C20" s="2">
         <v>45.72</v>
@@ -2942,7 +3136,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2968,16 +3162,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -2985,37 +3179,53 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="C2">
         <v>28.2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="C4">
         <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/docs/品牌数据库.xlsx
+++ b/docs/品牌数据库.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="242">
   <si>
     <t>食堂</t>
   </si>
@@ -138,15 +138,21 @@
     <t>蓼南香</t>
   </si>
   <si>
+    <t>小炒肉饭</t>
+  </si>
+  <si>
+    <t>预制菜，味道还行，偏辣</t>
+  </si>
+  <si>
+    <t>#炒饭</t>
+  </si>
+  <si>
     <t>巴西烤肉饭</t>
   </si>
   <si>
     <t>预制菜，味道还行</t>
   </si>
   <si>
-    <t>#炒饭</t>
-  </si>
-  <si>
     <t>黑椒牛排+小炒肉双拼炒饭</t>
   </si>
   <si>
@@ -168,6 +174,15 @@
     <t>还行</t>
   </si>
   <si>
+    <t>鸭血粉丝汤</t>
+  </si>
+  <si>
+    <t>难吃</t>
+  </si>
+  <si>
+    <t>#鸭血粉丝汤</t>
+  </si>
+  <si>
     <t>绝世皇鸭</t>
   </si>
   <si>
@@ -361,6 +376,15 @@
   </si>
   <si>
     <t>私房焖肉饭</t>
+  </si>
+  <si>
+    <t>肉卷饭</t>
+  </si>
+  <si>
+    <t>就是肥牛饭</t>
+  </si>
+  <si>
+    <t>#肥牛</t>
   </si>
   <si>
     <t>烤肉拌饭</t>
@@ -1797,10 +1821,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1999,186 +2023,184 @@
       <c r="C10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="2">
-        <v>16</v>
+      <c r="D10" s="3">
+        <v>14</v>
       </c>
       <c r="E10" s="2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2">
+      <c r="G11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2">
         <v>12</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="2">
         <v>4.5</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="2">
+      <c r="G12" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="2">
         <v>8</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <v>3.5</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="2">
-        <v>16</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2">
+        <v>12</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="2">
-        <v>18</v>
-      </c>
-      <c r="E14" s="2">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="3" t="s">
+      <c r="D15" s="2">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="2">
-        <v>10</v>
-      </c>
-      <c r="E15" s="2">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6">
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="2">
+      <c r="G16" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="2">
         <v>10</v>
       </c>
-      <c r="E16" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="2">
-        <v>12</v>
-      </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="3" t="s">
         <v>59</v>
       </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D18" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" s="2">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="3" t="s">
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="3" t="s">
+      <c r="D19" s="2">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="3" t="s">
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="2">
-        <v>13</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D20" s="2">
         <v>13</v>
@@ -2187,16 +2209,18 @@
         <v>3.5</v>
       </c>
       <c r="F20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D21" s="2">
         <v>13</v>
@@ -2205,213 +2229,213 @@
         <v>2.5</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="3" t="s">
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D22" s="2">
         <v>13</v>
       </c>
       <c r="E22" s="2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="D23" s="2">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="2">
-        <v>12</v>
-      </c>
-      <c r="E23" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="2">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="2">
-        <v>11</v>
-      </c>
-      <c r="E24" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="2">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="3" t="s">
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="2">
+      <c r="C26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="2">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="2">
         <v>9</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="2">
-        <v>8</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="2">
-        <v>4</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
       </c>
       <c r="F27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="3" t="s">
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="5"/>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="2">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D28" s="2">
-        <v>12</v>
-      </c>
-      <c r="E28" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="F28" s="3" t="s">
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="5"/>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="2">
-        <v>13</v>
-      </c>
-      <c r="E29" s="2">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="G29" s="3" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="5"/>
       <c r="C30" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2">
         <v>12</v>
       </c>
       <c r="E30" s="2">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
-        <v>101</v>
+      <c r="C31" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="D31" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E31" s="2">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="3">
-        <v>13</v>
+      <c r="C32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="2">
+        <v>12</v>
       </c>
       <c r="E32" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>105</v>
@@ -2419,14 +2443,14 @@
     </row>
     <row r="33" spans="2:7">
       <c r="B33" s="5"/>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="D33" s="3">
-        <v>18</v>
+      <c r="D33" s="2">
+        <v>4</v>
       </c>
       <c r="E33" s="2">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>107</v>
@@ -2436,37 +2460,33 @@
       </c>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="3">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2">
+        <v>5</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="3">
-        <v>15</v>
-      </c>
-      <c r="E34" s="2">
-        <v>3</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="G34" s="3" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="B35" s="5"/>
       <c r="C35" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D35" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E35" s="2">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>112</v>
@@ -2482,11 +2502,11 @@
       <c r="C36" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="2">
-        <v>16</v>
+      <c r="D36" s="3">
+        <v>14</v>
       </c>
       <c r="E36" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>116</v>
@@ -2495,248 +2515,307 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="2:7">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3">
+        <v>15</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D37" s="2">
-        <v>15</v>
-      </c>
-      <c r="E37" s="2">
-        <v>4</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D38" s="2">
-        <v>11</v>
+      <c r="D38" s="3">
+        <v>13</v>
       </c>
       <c r="E38" s="2">
         <v>3.5</v>
       </c>
       <c r="F38" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="2">
+        <v>16</v>
+      </c>
+      <c r="E39" s="2">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="2">
-        <v>13</v>
-      </c>
-      <c r="E39" s="2">
-        <v>3</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="2">
+        <v>15</v>
+      </c>
+      <c r="E40" s="2">
+        <v>4</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="2">
-        <v>14</v>
-      </c>
-      <c r="E40" s="2">
-        <v>2</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>76</v>
+      <c r="G40" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="3"/>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="D41" s="2">
+        <v>11</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D41" s="2">
-        <v>14</v>
-      </c>
-      <c r="E41" s="6">
-        <v>4.5</v>
-      </c>
-      <c r="F41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G41" s="2" t="s">
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3"/>
-      <c r="B42" s="5"/>
       <c r="C42" s="3" t="s">
         <v>135</v>
       </c>
       <c r="D42" s="2">
+        <v>13</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="2">
         <v>14</v>
       </c>
-      <c r="E42" s="2">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="2" t="s">
+      <c r="E43" s="2">
+        <v>2</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="G43" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3"/>
+      <c r="B44" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D43" s="2">
-        <v>15</v>
-      </c>
-      <c r="E43" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7">
-      <c r="C44" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="D44" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E44" s="6">
         <v>4.5</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="2" t="s">
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="3"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2">
+        <v>14</v>
+      </c>
+      <c r="E45" s="2">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D45" s="2">
+      <c r="G45" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="2">
+        <v>15</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="3:7">
+      <c r="C47" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D47" s="2">
+        <v>15</v>
+      </c>
+      <c r="E47" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D48" s="2">
         <v>8</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E48" s="2">
         <v>3.5</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="2">
+      <c r="F48" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" s="2">
         <v>16</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E49" s="2">
         <v>2</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D47" s="2">
+      <c r="F49" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="2">
         <v>20</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E50" s="2">
         <v>4.5</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>80</v>
+      <c r="F50" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A3:A36"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="A43:A46"/>
+  <mergeCells count="15">
+    <mergeCell ref="A3:A39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A49"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B33"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2766,13 +2845,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
@@ -2780,166 +2859,166 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" ht="28" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2967,16 +3046,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
@@ -2984,63 +3063,63 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D9" s="2">
         <v>4.5</v>
@@ -3048,13 +3127,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D11" s="2">
         <v>4.5</v>
@@ -3062,10 +3141,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="C13" s="2">
         <v>55.96</v>
@@ -3076,27 +3155,27 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D15" s="2">
         <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C17" s="2">
         <v>25</v>
@@ -3105,15 +3184,15 @@
         <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="C19" s="2">
         <v>13.8</v>
@@ -3122,12 +3201,12 @@
         <v>3.5</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="3" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2">
         <v>45.72</v>
@@ -3136,7 +3215,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3162,16 +3241,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
@@ -3179,33 +3258,33 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C2">
         <v>28.2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C4">
         <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
